--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692086.712164325</v>
+        <v>1687930.525856359</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>315.6538204187219</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>412.2877386950442</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>94.2401475588522</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>130.417586969678</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.8555903183376</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>275.4541853500637</v>
+        <v>14.96483578850281</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>272.3739152478184</v>
       </c>
       <c r="F5" t="n">
-        <v>276.7286969197538</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>132.5453608287261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>86.72562320332155</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>84.41399255951751</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>282.6103441630977</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.172067959553097</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>34.4373967019561</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>96.99837838564352</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
-        <v>176.7621441121403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>216.7094028874707</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>19.91555826189102</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>160.6789846282048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062049</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>106.8299898147636</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.10645541514128</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>54.3264904208971</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.14468102496</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.14468102496</v>
+        <v>1332.695788268568</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.14468102496</v>
+        <v>974.4300896618176</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.14468102496</v>
+        <v>974.4300896618176</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353522</v>
+        <v>563.44418487221</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272269</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073759</v>
+        <v>293.3053724073749</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723707</v>
+        <v>776.0043429178213</v>
       </c>
       <c r="L2" t="n">
-        <v>692.723165690562</v>
+        <v>1026.699858686254</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481642</v>
+        <v>1667.723068306148</v>
       </c>
       <c r="N2" t="n">
-        <v>1629.816941868058</v>
+        <v>1973.19817454173</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.122553105052</v>
+        <v>2248.314393858362</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394155</v>
+        <v>2448.618721147463</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397901</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2062.883853064893</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2062.883853064893</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.883853064893</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.744521089081</v>
+        <v>1651.538031115762</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686811</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093829</v>
+        <v>85.9974213009385</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995046</v>
+        <v>201.9455071369546</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626819</v>
+        <v>323.3685994072322</v>
       </c>
       <c r="L3" t="n">
-        <v>669.9499323155123</v>
+        <v>900.0914145104857</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928757</v>
+        <v>1304.992176928763</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362089</v>
+        <v>1590.326047362094</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>1829.13099911355</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>690.8945386193532</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C4" t="n">
-        <v>521.9583556914463</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D4" t="n">
-        <v>371.8417162791105</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E4" t="n">
-        <v>371.8417162791105</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>371.8417162791105</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018363</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341292</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666685</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092684</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357422</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702565</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702565</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="T4" t="n">
-        <v>969.1310894780033</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="U4" t="n">
-        <v>969.1310894780033</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="V4" t="n">
-        <v>969.1310894780033</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="W4" t="n">
-        <v>690.8945386193532</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X4" t="n">
-        <v>690.8945386193532</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y4" t="n">
-        <v>690.8945386193532</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1087.019180569858</v>
+        <v>1881.173470159407</v>
       </c>
       <c r="C5" t="n">
-        <v>1087.019180569858</v>
+        <v>1881.173470159407</v>
       </c>
       <c r="D5" t="n">
-        <v>728.7534819631076</v>
+        <v>1522.907771552657</v>
       </c>
       <c r="E5" t="n">
-        <v>342.9652293648633</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>1881.173470159407</v>
       </c>
       <c r="W5" t="n">
-        <v>2237.224110870871</v>
+        <v>1881.173470159407</v>
       </c>
       <c r="X5" t="n">
-        <v>1863.758352609791</v>
+        <v>1881.173470159407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1473.61902063398</v>
+        <v>1881.173470159407</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682816</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845964</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802664</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518195</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1073.796673043704</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>904.8604901157969</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>754.7438507034611</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>620.859647846162</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482516</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.862307910904</v>
+        <v>1559.382030554564</v>
       </c>
       <c r="V7" t="n">
-        <v>1544.862307910904</v>
+        <v>1304.697542348677</v>
       </c>
       <c r="W7" t="n">
-        <v>1255.445137873943</v>
+        <v>1015.280372311716</v>
       </c>
       <c r="X7" t="n">
-        <v>1255.445137873943</v>
+        <v>1015.280372311716</v>
       </c>
       <c r="Y7" t="n">
-        <v>1255.445137873943</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1329.746324659711</v>
+        <v>559.693857022919</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.746324659711</v>
+        <v>559.693857022919</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.746324659711</v>
+        <v>559.693857022919</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9580720614667</v>
+        <v>559.693857022919</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>552.7483562737156</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>137.0665144738475</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
         <v>447.8319447135512</v>
@@ -4813,7 +4813,7 @@
         <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083233</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2005.350650739662</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.350650739662</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="X8" t="n">
-        <v>1719.885656635523</v>
+        <v>946.2936970870408</v>
       </c>
       <c r="Y8" t="n">
-        <v>1329.746324659711</v>
+        <v>946.2936970870408</v>
       </c>
     </row>
     <row r="9">
@@ -4868,37 +4868,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682815</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845962</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>965.5645858344694</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802664</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.723412518195</v>
+        <v>1690.902827875743</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.825563768798</v>
+        <v>700.4409679372609</v>
       </c>
       <c r="C10" t="n">
-        <v>918.8893808408909</v>
+        <v>531.504785009354</v>
       </c>
       <c r="D10" t="n">
-        <v>768.7727414285552</v>
+        <v>381.3881455970183</v>
       </c>
       <c r="E10" t="n">
-        <v>620.859647846162</v>
+        <v>233.4750520146251</v>
       </c>
       <c r="F10" t="n">
-        <v>473.9697003482516</v>
+        <v>86.58510451671478</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1544.862307910904</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>1544.862307910904</v>
+        <v>1102.882011911031</v>
       </c>
       <c r="X10" t="n">
-        <v>1316.872757012886</v>
+        <v>1102.882011911031</v>
       </c>
       <c r="Y10" t="n">
-        <v>1096.080177869356</v>
+        <v>882.0894327675006</v>
       </c>
     </row>
     <row r="11">
@@ -5026,34 +5026,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5269,16 +5269,16 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5357,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,13 +5837,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081858</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153951</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4517.069482196493</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4517.069482196493</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990606</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953645</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055628</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,25 +6004,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6311,16 +6311,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2951.54259528685</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2782.606412358944</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2632.489772946608</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2484.576679364215</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4126.074848401485</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3871.390360195598</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3581.973190158637</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>3353.98363926062</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>3133.19106011709</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2052.406834234631</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1797.722346028744</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.8692823226939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>473.9330993947871</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7499,19 +7499,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.547769317909</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>593.6115863900021</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4949469776664</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>295.5818533952732</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>148.6919058973629</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.20478237398279</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942364</v>
       </c>
       <c r="N2" t="n">
-        <v>338.937478165969</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>134.5347393134949</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>374.8512253714719</v>
+        <v>142.3850817401935</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>245.4670104377197</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.18437503906578</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>35.38972270187088</v>
+        <v>299.8549597144482</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
-        <v>75.37549921168772</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>69.47507150177341</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.11201973523735</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>125.5054897610402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>125.5054897610394</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>179.3544845744806</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>127.725524766796</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>111.1976478713717</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>936795.6204380222</v>
+        <v>936795.6204380227</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117838</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117842</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117841</v>
-      </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="M2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753946</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898934</v>
+        <v>172764.3597898962</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.83881516</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695025</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.48053169503</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.07489699082</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-655136.6991757642</v>
+        <v>-655136.6991757615</v>
       </c>
       <c r="C6" t="n">
-        <v>138364.9465351332</v>
+        <v>138364.9465351301</v>
       </c>
       <c r="D6" t="n">
         <v>311129.3063250265</v>
       </c>
       <c r="E6" t="n">
-        <v>-83653.58830284906</v>
+        <v>-84000.96755720559</v>
       </c>
       <c r="F6" t="n">
-        <v>417235.2794429019</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="G6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="H6" t="n">
-        <v>417235.279442902</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="I6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="J6" t="n">
-        <v>247821.2626168536</v>
+        <v>247473.8833624969</v>
       </c>
       <c r="K6" t="n">
-        <v>417235.2794429015</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="L6" t="n">
-        <v>417235.279442902</v>
+        <v>416887.9001885447</v>
       </c>
       <c r="M6" t="n">
-        <v>286350.8225386664</v>
+        <v>286003.4432843096</v>
       </c>
       <c r="N6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="O6" t="n">
-        <v>417235.2794429017</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="P6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885447</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976066</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976066</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522349</v>
+        <v>189.725434152238</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>49.61907135228569</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>197.3346715004569</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>11.06881298652735</v>
+        <v>271.5581625480882</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>109.5564548244434</v>
       </c>
       <c r="F5" t="n">
-        <v>130.1473488219577</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.88860181784307</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -27830,10 +27830,10 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>199.5009760163841</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>216.3722946889422</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>87.12075651537134</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.6599122223842</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>131.8590301487734</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -28070,13 +28070,13 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066884</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.5191561611354</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014917</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658661</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485874</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072702</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.613166585674097</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.57979307743141</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307748</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605096</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911955</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.8133674257138</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.0440649433283</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.91929960289</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969209</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993398</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777185</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.6164245685555</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932496</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965164</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189581</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32557,16 +32557,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33031,19 +33031,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>537.6437863443696</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>409.0029787211719</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.944966752077</v>
+        <v>243.9449667520759</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161564</v>
+        <v>487.5747176873196</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315064</v>
+        <v>253.2277937054873</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.5607133692752</v>
       </c>
       <c r="O2" t="n">
-        <v>412.4299103403976</v>
+        <v>277.8951710269007</v>
       </c>
       <c r="P2" t="n">
-        <v>202.327603322326</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185456</v>
+        <v>103.2802639586396</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138492</v>
+        <v>39.52180169138413</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932399</v>
+        <v>151.6622745597322</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643752</v>
+        <v>122.6495881517956</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806368</v>
+        <v>582.5482980840945</v>
       </c>
       <c r="M3" t="n">
-        <v>641.4568127406508</v>
+        <v>408.9906691093707</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407399</v>
+        <v>288.2160307407381</v>
       </c>
       <c r="O3" t="n">
-        <v>241.217122981271</v>
+        <v>241.2171229812694</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689365</v>
+        <v>492.5324261689352</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527185</v>
+        <v>276.0148132527177</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451882727</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000435</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.0850811794442</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35032,10 +35032,10 @@
         <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>497.46370525087</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>287.3864175150212</v>
+        <v>551.8516545275986</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>395.0475418999251</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>266.8689447991536</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1687930.525856359</v>
+        <v>1689691.056159144</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>315.6538204187219</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950442</v>
+        <v>396.7702203240915</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.2401475588522</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734244</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906504</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.8555903183376</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>28.15826128763494</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>14.96483578850281</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>272.3739152478184</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>10.02902632661453</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.2184468795535</v>
       </c>
       <c r="U7" t="n">
-        <v>86.72562320332155</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>84.41399255951751</v>
+        <v>80.90989556694392</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.4373967019561</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>60.86538463674672</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>96.99837838564352</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>81.1139899822969</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>96.99837838564352</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>216.7094028874707</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>40.15381658332819</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>82.73433514019987</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,55 +4306,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1651.538031115762</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="C2" t="n">
-        <v>1332.695788268568</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="D2" t="n">
-        <v>974.4300896618176</v>
+        <v>940.5036772388974</v>
       </c>
       <c r="E2" t="n">
-        <v>974.4300896618176</v>
+        <v>554.7154246406531</v>
       </c>
       <c r="F2" t="n">
-        <v>563.44418487221</v>
+        <v>547.7699238914496</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640846</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640846</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073749</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178213</v>
+        <v>455.1003844723691</v>
       </c>
       <c r="L2" t="n">
-        <v>1026.699858686254</v>
+        <v>692.7231656905592</v>
       </c>
       <c r="M2" t="n">
-        <v>1667.723068306148</v>
+        <v>1333.746375310453</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.19817454173</v>
+        <v>1639.221481546037</v>
       </c>
       <c r="O2" t="n">
-        <v>2248.314393858362</v>
+        <v>1914.337700862669</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147463</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
         <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
         <v>2448.259651016315</v>
@@ -4369,13 +4369,13 @@
         <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1651.538031115762</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.538031115762</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="Y2" t="n">
-        <v>1651.538031115762</v>
+        <v>1298.769375845648</v>
       </c>
     </row>
     <row r="3">
@@ -4391,55 +4391,55 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686811</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009385</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369546</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072322</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>900.0914145104857</v>
+        <v>408.1293476730576</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928763</v>
+        <v>1049.152557292952</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362094</v>
+        <v>1590.326047362092</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.13099911355</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
         <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
+        <v>2589.992766140986</v>
+      </c>
+      <c r="R3" t="n">
         <v>2589.992766140987</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.6557187433658</v>
+        <v>833.9774911502419</v>
       </c>
       <c r="C4" t="n">
-        <v>496.7195358154589</v>
+        <v>665.041308222335</v>
       </c>
       <c r="D4" t="n">
-        <v>346.6028964031232</v>
+        <v>514.9246688099993</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281973</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018363</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159861</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341292</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666685</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092684</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357422</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993466</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361115</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361115</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361115</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361115</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361115</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361115</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="W4" t="n">
-        <v>1296.086313615153</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="X4" t="n">
-        <v>1068.096762717136</v>
+        <v>1083.2127584631</v>
       </c>
       <c r="Y4" t="n">
-        <v>847.3041835736055</v>
+        <v>862.4201793195701</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.173470159407</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="C5" t="n">
-        <v>1881.173470159407</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D5" t="n">
-        <v>1522.907771552657</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>1247.782604635669</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104787</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135516</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.613300747739</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
@@ -4588,31 +4588,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.236357502978</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.173470159407</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.173470159407</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.173470159407</v>
+        <v>1995.220321116819</v>
       </c>
       <c r="Y5" t="n">
-        <v>1881.173470159407</v>
+        <v>1605.080989141008</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>491.5015312480865</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>788.8134803644011</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1155.119369856727</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.6319074814764</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C7" t="n">
-        <v>664.6957245535696</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D7" t="n">
-        <v>514.5790851412338</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>366.6659915588407</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4755,22 +4755,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1515.449885427056</v>
       </c>
       <c r="U7" t="n">
-        <v>1559.382030554564</v>
+        <v>1226.332108437455</v>
       </c>
       <c r="V7" t="n">
-        <v>1304.697542348677</v>
+        <v>971.6476202315675</v>
       </c>
       <c r="W7" t="n">
-        <v>1015.280372311716</v>
+        <v>682.2304501946069</v>
       </c>
       <c r="X7" t="n">
-        <v>1015.280372311716</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y7" t="n">
-        <v>1015.280372311716</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.693857022919</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="C8" t="n">
-        <v>559.693857022919</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="D8" t="n">
-        <v>559.693857022919</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="E8" t="n">
-        <v>559.693857022919</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="F8" t="n">
-        <v>552.7483562737156</v>
+        <v>145.168460321621</v>
       </c>
       <c r="G8" t="n">
-        <v>137.0665144738475</v>
+        <v>133.527022562157</v>
       </c>
       <c r="H8" t="n">
         <v>51.79985532281972</v>
@@ -4804,7 +4804,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
         <v>447.8319447135512</v>
@@ -4813,7 +4813,7 @@
         <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4831,7 +4831,7 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
         <v>2257.170226019558</v>
@@ -4840,16 +4840,16 @@
         <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618235</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>1319.759455348121</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X8" t="n">
-        <v>946.2936970870408</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="Y8" t="n">
-        <v>946.2936970870408</v>
+        <v>556.1543651112286</v>
       </c>
     </row>
     <row r="9">
@@ -4868,37 +4868,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.946747225829</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421438</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344694</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160212</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875743</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.4409679372609</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C10" t="n">
-        <v>531.504785009354</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D10" t="n">
-        <v>381.3881455970183</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>233.4750520146251</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>86.58510451671478</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4962,25 +4962,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4998,16 +4998,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1392.299181947991</v>
+        <v>1585.503483652114</v>
       </c>
       <c r="W10" t="n">
-        <v>1102.882011911031</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X10" t="n">
-        <v>1102.882011911031</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y10" t="n">
-        <v>882.0894327675006</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1888.077129657224</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2311.700279152292</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.961939527175</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>415.5933575433587</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>415.5933575433587</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>415.5933575433587</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>449.4852666057155</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>301.5721730233224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>301.5721730233224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>134.3760737382024</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>134.3760737382024</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,7 +6226,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6648,7 +6648,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
         <v>2035.268256189238</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7648,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13.20478237398279</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942364</v>
+        <v>348.4370131942355</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>125.0352042852381</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.3850817401935</v>
+        <v>380.8926041660687</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>258.4238582179888</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>191.4694788103614</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8549597144482</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>68.52575990662532</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>69.47507150177341</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>41.11201973523735</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>134.6711151870884</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>936795.6204380227</v>
+        <v>936795.6204380224</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117838</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
@@ -26337,25 +26337,25 @@
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753946</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898962</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151605</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
@@ -26456,7 +26456,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699082</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-655136.6991757615</v>
+        <v>-655136.6991757625</v>
       </c>
       <c r="C6" t="n">
-        <v>138364.9465351301</v>
+        <v>138364.9465351313</v>
       </c>
       <c r="D6" t="n">
-        <v>311129.3063250265</v>
+        <v>311129.3063250263</v>
       </c>
       <c r="E6" t="n">
-        <v>-84000.96755720559</v>
+        <v>-83688.32622828468</v>
       </c>
       <c r="F6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.541517466</v>
       </c>
       <c r="G6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.5415174662</v>
       </c>
       <c r="H6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="I6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="J6" t="n">
-        <v>247473.8833624969</v>
+        <v>247786.524691418</v>
       </c>
       <c r="K6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.5415174662</v>
       </c>
       <c r="L6" t="n">
-        <v>416887.9001885447</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="M6" t="n">
-        <v>286003.4432843096</v>
+        <v>286316.0846132309</v>
       </c>
       <c r="N6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.541517466</v>
       </c>
       <c r="O6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.5415174662</v>
       </c>
       <c r="P6" t="n">
-        <v>416887.9001885447</v>
+        <v>417200.5415174663</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976066</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976066</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152238</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918289</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>49.61907135228569</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.51751837095264</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495114</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>151.6737188943024</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639206</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994864</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519701</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713016</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>271.5581625480882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>109.5564548244434</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>359.7020743518545</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27827,10 +27827,10 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>90.48678183388492</v>
       </c>
       <c r="U7" t="n">
-        <v>199.5009760163841</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>216.3722946889422</v>
+        <v>219.8763916815158</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>131.8590301487734</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28070,13 +28070,13 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>191.2722586870813</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090879</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625572</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115537</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066884</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611354</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014917</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682829</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658661</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485874</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775938</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330891</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325338</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282097</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494783</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072702</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674097</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743141</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307748</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859901</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261546</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605096</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911955</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240715</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257138</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433283</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.91929960289</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526427</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969209</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993398</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364538</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651422</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351901</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777185</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.6164245685555</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711379</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600305</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932496</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840036</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184392</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351501</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311386</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519936</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567068</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965164</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189581</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>153.8606640989137</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L21" t="n">
-        <v>570.6116741576916</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34380,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520759</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873196</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>253.2277937054873</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692752</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269007</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223243</v>
+        <v>327.362807607563</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586396</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138413</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597322</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517956</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840945</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>408.9906691093707</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407381</v>
+        <v>546.6398889587276</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812694</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689352</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527177</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882727</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.857665945255</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203466</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550902</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632322</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324789</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000435</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.0850811794442</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915747</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>380.0164378035054</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35029,13 +35029,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.1266691917136</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>551.8516545275986</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.181160134949776</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0572943778175</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
